--- a/Teaching_Overview.xlsx
+++ b/Teaching_Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\R\brry.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42896E8-2D67-4C5B-AAE7-882C01E383C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42921574-7190-45A5-98D3-189CEA26F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7905" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,8 @@
     <t>[2017](https://swc-bb.github.io/2017-05-17-GFZ), [18](https://swc-bb.github.io/2018-04-25-Potsdam-Berlin), [19](https://swc-bb.github.io/2019-11-26-Potsdam-Berlin-R)</t>
   </si>
   <si>
-    <t>[2020](https://open.hpi.de/courses/StatisticsCHealthSoSe2020)</t>
+    <t>[2020](https://open.hpi.de/courses/StatisticsCHealthSoSe2020) + 
+[2021](https://open.hpi.de/courses/hpi-dh-StatisticsCHealth2021)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +541,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" style="2" customWidth="1"/>

--- a/Teaching_Overview.xlsx
+++ b/Teaching_Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\R\brry.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42921574-7190-45A5-98D3-189CEA26F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD5FED-A50B-41DF-A22D-4B84C81F51C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7905" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="945" windowWidth="18525" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>2012 + 2013</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Fundamentals of R and [Python](https://raw.githubusercontent.com/brry/misc/master/PythonNotesBerry.pdf)</t>
-  </si>
-  <si>
-    <t>[2019](https://open.hpi.de/courses/fprog-wi-2019) + [2020](https://open.hpi.de/courses/fprog-wi-2020)</t>
   </si>
   <si>
     <t>Dec [2013](http://www.cawa-project.net/ru/news-detail/news/cawa-training-course-statistical-analysis-in-hydrology-introduction-into-r)</t>
@@ -164,6 +161,21 @@
   <si>
     <t>[2020](https://open.hpi.de/courses/StatisticsCHealthSoSe2020) + 
 [2021](https://open.hpi.de/courses/hpi-dh-StatisticsCHealth2021)</t>
+  </si>
+  <si>
+    <t>[2019](https://open.hpi.de/courses/fprog-wi-2019) + [20](https://open.hpi.de/courses/fprog-wi-2020) + [21](https://open.hpi.de/courses/hpi-dh-fprog2021)</t>
+  </si>
+  <si>
+    <t>online course</t>
+  </si>
+  <si>
+    <t>anybody can join</t>
+  </si>
+  <si>
+    <t>March 2022</t>
+  </si>
+  <si>
+    <t>R Grundlagen [MOOC](https://open.hpi.de/courses/programmieren-r2022) (in prep)</t>
   </si>
 </sst>
 </file>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -660,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -705,7 +717,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -720,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -729,6 +741,20 @@
         <v>30</v>
       </c>
       <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Teaching_Overview.xlsx
+++ b/Teaching_Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\R\brry.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD5FED-A50B-41DF-A22D-4B84C81F51C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365B749-FD87-4A5B-AAED-5ABF3722121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="945" windowWidth="18525" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -159,23 +159,23 @@
     <t>[2017](https://swc-bb.github.io/2017-05-17-GFZ), [18](https://swc-bb.github.io/2018-04-25-Potsdam-Berlin), [19](https://swc-bb.github.io/2019-11-26-Potsdam-Berlin-R)</t>
   </si>
   <si>
+    <t>[2019](https://open.hpi.de/courses/fprog-wi-2019) + [20](https://open.hpi.de/courses/fprog-wi-2020) + [21](https://open.hpi.de/courses/hpi-dh-fprog2021)</t>
+  </si>
+  <si>
+    <t>online course</t>
+  </si>
+  <si>
+    <t>March [2022](https://open.hpi.de/courses/programmieren-r2022)</t>
+  </si>
+  <si>
+    <t>R Grundlagen MOOC</t>
+  </si>
+  <si>
     <t>[2020](https://open.hpi.de/courses/StatisticsCHealthSoSe2020) + 
-[2021](https://open.hpi.de/courses/hpi-dh-StatisticsCHealth2021)</t>
-  </si>
-  <si>
-    <t>[2019](https://open.hpi.de/courses/fprog-wi-2019) + [20](https://open.hpi.de/courses/fprog-wi-2020) + [21](https://open.hpi.de/courses/hpi-dh-fprog2021)</t>
-  </si>
-  <si>
-    <t>online course</t>
-  </si>
-  <si>
-    <t>anybody can join</t>
-  </si>
-  <si>
-    <t>March 2022</t>
-  </si>
-  <si>
-    <t>R Grundlagen [MOOC](https://open.hpi.de/courses/programmieren-r2022) (in prep)</t>
+[21](https://open.hpi.de/courses/hpi-dh-StatisticsCHealth2021) + [22](https://open.hpi.de/courses/hpi-dh-StatisticsCHealth2022)</t>
+  </si>
+  <si>
+    <t>5000 diverse participants</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -727,12 +727,12 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -742,18 +742,18 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Teaching_Overview.xlsx
+++ b/Teaching_Overview.xlsx
@@ -136,7 +136,53 @@
     <t xml:space="preserve">Fundamentals of R and [Python](https://raw.githubusercontent.com/brry/misc/master/PythonNotesBerry.pdf)</t>
   </si>
   <si>
-    <t xml:space="preserve">[2019](https://open.hpi.de/courses/fprog-wi-2019), [20](https://open.hpi.de/courses/fprog-wi-2020), [21](https://open.hpi.de/courses/hpi-dh-fprog2021), [22](https://open.hpi.de/courses/hpi-dh-fprog2022)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[19](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://open.hpi.de/courses/fprog-wi-2019),[20](https://open.hpi.de/courses/fprog-wi-2020),[21](https://open.hpi.de/courses/hpi-dh-fprog2021),[22](https://open.hpi.de/courses/hpi-dh-fprog2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">), [23](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://open.hpi.de/courses/hpi-dh-fprog2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">digital health Msc + PhD students at HPI</t>
@@ -364,7 +410,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
